--- a/DataTable/900示例配置.xlsx
+++ b/DataTable/900示例配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataTable\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NumberGame\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B658AEF0-F00E-4E77-8DBF-DAEDDFAE24DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59715E80-C87D-49F3-B03C-1F070ABD3CB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="90" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,21 +128,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>900000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEnumType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>900010000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>BitType</t>
-  </si>
-  <si>
-    <t>1,0,1</t>
+  </si>
+  <si>
+    <t>EEnumType_Type_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEnumType_Type_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector&lt;EEnumType2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEnumTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEnumType2_Type_None,EEnumType2_Type_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -173,10 +207,28 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -185,12 +237,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,10 +540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:K6"/>
+  <dimension ref="A3:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,14 +555,16 @@
     <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,59 +581,71 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -578,22 +660,28 @@
         <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
@@ -605,131 +693,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61C328C-9712-493C-9AA2-16B1221B1808}">
-  <dimension ref="A3:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5189E8F9-DDB6-457E-A26E-20E34DB75C4D}">
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="2:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6">
+        <v>123.456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>123</v>
-      </c>
-      <c r="E5" s="1">
-        <v>123.456</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataTable/900示例配置.xlsx
+++ b/DataTable/900示例配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>int32</t>
   </si>
@@ -47,7 +47,7 @@
     <t>string[]</t>
   </si>
   <si>
-    <t>EEnumType2[]</t>
+    <t>EEnumType[]</t>
   </si>
   <si>
     <t>bool[0]</t>
@@ -68,6 +68,9 @@
     <t>int32:fill(100)</t>
   </si>
   <si>
+    <t>int32[]:fill(100)</t>
+  </si>
+  <si>
     <t>float:add(1.1)</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>VectorInt32Type</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>VectorFloatType</t>
   </si>
   <si>
@@ -113,7 +119,10 @@
     <t>VectorIndexStringType</t>
   </si>
   <si>
-    <t>FillPlugin</t>
+    <t>FillPluginInt</t>
+  </si>
+  <si>
+    <t>FillPluginInt32</t>
   </si>
   <si>
     <t>AddPlugin</t>
@@ -146,7 +155,7 @@
     <t>Te"stA,Te)stB,Te\,stC,Te\\stD</t>
   </si>
   <si>
-    <t>EEnumType2_Type_None,EEnumType2_Type_1</t>
+    <t>EEnumType_Type_0,EEnumType_Type_1</t>
   </si>
   <si>
     <t>0</t>
@@ -185,37 +194,49 @@
     <t>0,0,1</t>
   </si>
   <si>
-    <t>1,1,2,4</t>
+    <t>1,2!3@4#5$6%7^8&amp;9*10=11+12?13:14\15/16</t>
+  </si>
+  <si>
+    <t>字段不写全不导出</t>
+  </si>
+  <si>
+    <t>1.5,3,,4</t>
+  </si>
+  <si>
+    <t>Te"st)A,中文测试,Te\,stC,Te\\stD</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>测试注释</t>
   </si>
   <si>
-    <t>1.5,3,,4</t>
-  </si>
-  <si>
-    <t>Te"st)A,中文测试,Te\,stC,Te\\stD</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>900000002</t>
   </si>
   <si>
     <t>123.456</t>
   </si>
   <si>
-    <t>(Te\"st)"</t>
-  </si>
-  <si>
-    <t>102</t>
+    <t>(T\ne\"st)"</t>
+  </si>
+  <si>
+    <t>1,3,EEnumType_Type_1,4</t>
+  </si>
+  <si>
+    <t>Te"stA,Te)s\ntB,Te\,stC,Te\\stD</t>
+  </si>
+  <si>
+    <t>100000102</t>
+  </si>
+  <si>
+    <t>100000102,-1,0,101</t>
   </si>
   <si>
     <t>3.2</t>
@@ -233,10 +254,21 @@
     <t>900010001</t>
   </si>
   <si>
+    <t>(Te\"s
+t)</t>
+  </si>
+  <si>
     <t>1,1,1</t>
   </si>
   <si>
+    <t>Te"stA,Te)stB,Te\,stC,T
+e\\stD</t>
+  </si>
+  <si>
     <t>10301</t>
+  </si>
+  <si>
+    <t>10301,101</t>
   </si>
   <si>
     <t>2.5</t>
@@ -252,7 +284,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +294,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,8 +343,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,32 +367,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,63 +414,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,6 +429,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,25 +453,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,157 +585,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,11 +680,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,22 +714,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,8 +722,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +745,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -729,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,31 +780,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,98 +819,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -887,6 +926,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,6 +936,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1222,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:U10"/>
+  <dimension ref="A3:V10"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1238,28 +1286,30 @@
     <col min="6" max="7" width="10.25" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="15" style="3" customWidth="1"/>
-    <col min="10" max="11" width="19" style="3" customWidth="1"/>
+    <col min="10" max="10" width="48.625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.375" style="3" customWidth="1"/>
     <col min="13" max="13" width="32.75" style="3" customWidth="1"/>
     <col min="14" max="14" width="42.875" style="3" customWidth="1"/>
     <col min="15" max="18" width="20" style="3" customWidth="1"/>
     <col min="19" max="19" width="21.25" style="3" customWidth="1"/>
     <col min="20" max="20" width="11.625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="12.375" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="3"/>
+    <col min="21" max="21" width="18.375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="12.375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" s="5" customFormat="1" spans="2:21">
-      <c r="B3" s="8" t="s">
+    <row r="3" s="5" customFormat="1" spans="2:22">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1271,108 +1321,117 @@
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" s="9" customFormat="1" spans="2:21">
-      <c r="B4" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="4" s="10" customFormat="1" spans="2:22">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="11" t="s">
+      <c r="O4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="P4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="R4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1384,130 +1443,137 @@
         <v>123.456</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="O5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="P5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="R5" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="5:20">
-      <c r="E7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" s="10"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="T6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="5:21">
+      <c r="E7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -1516,59 +1582,62 @@
         <v>123</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>69</v>
+      <c r="O8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1582,19 +1651,20 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="14:21">
-      <c r="N10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="U10" s="10"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="14:22">
+      <c r="N10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1606,10 +1676,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1642,10 +1712,10 @@
     <row r="3" s="2" customFormat="1" spans="3:5">
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="3:3">
@@ -1656,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1676,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1690,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>123</v>
@@ -1704,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>123.456</v>
@@ -1713,18 +1783,18 @@
         <v>123.456</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" ht="28.5" spans="2:5">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1732,13 +1802,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1746,13 +1816,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1760,13 +1830,13 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1774,13 +1844,13 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1788,27 +1858,27 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="2:5">
       <c r="B15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -1816,79 +1886,93 @@
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>46</v>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>45</v>
+      <c r="C18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>47</v>
+      <c r="C19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>73</v>
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>74</v>
+      <c r="C21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
